--- a/templates/Excel/ST3/ST3_Line_Rejection.xlsx
+++ b/templates/Excel/ST3/ST3_Line_Rejection.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,30 +604,20 @@
           <t>SHIFT1</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
+      <c r="C5" t="n">
+        <v>234</v>
+      </c>
+      <c r="D5" t="n">
+        <v>234</v>
+      </c>
+      <c r="E5" t="n">
+        <v>234</v>
+      </c>
+      <c r="F5" t="n">
+        <v>234</v>
+      </c>
+      <c r="G5" t="n">
+        <v>234</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -642,6 +632,142 @@
       <c r="J5" t="inlineStr">
         <is>
           <t>asgd</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-02-14T18:45</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SHIFT2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>123</v>
+      </c>
+      <c r="D6" t="n">
+        <v>23</v>
+      </c>
+      <c r="E6" t="n">
+        <v>123</v>
+      </c>
+      <c r="F6" t="n">
+        <v>123</v>
+      </c>
+      <c r="G6" t="n">
+        <v>123</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1123</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-02-14T18:45</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SHIFT2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>123</v>
+      </c>
+      <c r="D7" t="n">
+        <v>23</v>
+      </c>
+      <c r="E7" t="n">
+        <v>123</v>
+      </c>
+      <c r="F7" t="n">
+        <v>123</v>
+      </c>
+      <c r="G7" t="n">
+        <v>123</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1123</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-02-06T18:47</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SHIFT2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>aEF</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>SDG</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ASDF</t>
         </is>
       </c>
     </row>
